--- a/CalendarioRequisitos.xlsx
+++ b/CalendarioRequisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAIXÃO-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910959B0-1A87-47CD-88DD-FA03585CBCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC57D72A-1B6E-4B6F-A705-530C8F580905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B1FBB3EE-2732-4535-A1E3-63CB86D0B6EE}"/>
   </bookViews>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21FDA4E-4B96-4EED-A1DE-8C4DF2DB92C8}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>43764</v>
+        <v>43784</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>43765</v>
+        <v>43785</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>43765</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>43771</v>
+        <v>43798</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>43774</v>
+        <v>43806</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>43778</v>
+        <v>43820</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>43779</v>
+        <v>43834</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -519,8 +519,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="5">
-        <v>43784</v>
-      </c>
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
